--- a/plotly/RnPy/layout.xlsx
+++ b/plotly/RnPy/layout.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17856" windowHeight="12540" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="title" sheetId="1" r:id="rId1"/>
-    <sheet name="legend" sheetId="2" r:id="rId2"/>
-    <sheet name="margin" sheetId="3" r:id="rId3"/>
-    <sheet name="axis" sheetId="8" r:id="rId4"/>
-    <sheet name="size" sheetId="4" r:id="rId5"/>
-    <sheet name="bgcolor" sheetId="6" r:id="rId6"/>
-    <sheet name="bar" sheetId="7" r:id="rId7"/>
+    <sheet name="표 2-2. 레이아웃의 title 속성" sheetId="1" r:id="rId1"/>
+    <sheet name="표 2-3. 레이아웃의 색 속성" sheetId="6" r:id="rId2"/>
+    <sheet name="표 2-4. 레이아웃의 축 속성" sheetId="8" r:id="rId3"/>
+    <sheet name="표 2-5. 레이아웃의 범례 속성" sheetId="2" r:id="rId4"/>
+    <sheet name="표 2-6. 레이아웃의 여백 속성" sheetId="3" r:id="rId5"/>
+    <sheet name="표 2-7. 레이아웃의 크기 속성" sheetId="4" r:id="rId6"/>
+    <sheet name="표 4-2. bar 트레이스와 관련된 layout 속성 " sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="302">
   <si>
     <t>속성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -785,9 +785,857 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>( </t>
-    </r>
+    <t>barnorm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>막대 트레이스의 표준화 방법 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>automargin</t>
+  </si>
+  <si>
+    <t>autorange</t>
+  </si>
+  <si>
+    <t>autotypenumbers</t>
+  </si>
+  <si>
+    <t>categoryarray</t>
+  </si>
+  <si>
+    <t>categoryorder</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>dtick</t>
+  </si>
+  <si>
+    <t>fixedrange</t>
+  </si>
+  <si>
+    <t>gridcolor</t>
+  </si>
+  <si>
+    <t>gridwidth</t>
+  </si>
+  <si>
+    <t>linecolor</t>
+  </si>
+  <si>
+    <t>linewidth</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>nticks</t>
+  </si>
+  <si>
+    <t>showgrid</t>
+  </si>
+  <si>
+    <t>tick0</t>
+  </si>
+  <si>
+    <t>tickcolor</t>
+  </si>
+  <si>
+    <t>ticklen</t>
+  </si>
+  <si>
+    <t>tickmode</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>tickvals</t>
+  </si>
+  <si>
+    <t>tickwidth</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>rangebreaks</t>
+  </si>
+  <si>
+    <t>bounds</t>
+  </si>
+  <si>
+    <t>dvalue</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>rangemode</t>
+  </si>
+  <si>
+    <t>separatethousands</t>
+  </si>
+  <si>
+    <t>showdividers</t>
+  </si>
+  <si>
+    <t>showexponent</t>
+  </si>
+  <si>
+    <t>showline</t>
+  </si>
+  <si>
+    <t>showspikes</t>
+  </si>
+  <si>
+    <t>showticklabels</t>
+  </si>
+  <si>
+    <t>showtickprefix</t>
+  </si>
+  <si>
+    <t>showticksuffix</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>spikecolor</t>
+  </si>
+  <si>
+    <t>spikedash</t>
+  </si>
+  <si>
+    <t>spikemode</t>
+  </si>
+  <si>
+    <t>tickangle</t>
+  </si>
+  <si>
+    <t>tickfont</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>tickformat</t>
+  </si>
+  <si>
+    <t>tickformatstops</t>
+  </si>
+  <si>
+    <t>dtickrange</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>ticklabelmode</t>
+  </si>
+  <si>
+    <t>ticklabeloverflow</t>
+  </si>
+  <si>
+    <t>ticklabelposition</t>
+  </si>
+  <si>
+    <t>tickprefix</t>
+  </si>
+  <si>
+    <t>ticksuffix</t>
+  </si>
+  <si>
+    <t>ticktext</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>standoff</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>zeroline</t>
+  </si>
+  <si>
+    <t>zerolinecolor</t>
+  </si>
+  <si>
+    <t>zerolinewidth</t>
+  </si>
+  <si>
+    <t>주 눈금라벨과 플롯간의 자동 간격 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 데이터에 관련된 축의 범위를 설정 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strict'는 트레이스의 수치 문자열을 수치로 변환하지 않고 문자열로 사용하고 "convert types"은 수치 문자열을 수치로 변환하여 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산형 변수의 순서 설정 방법을 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축에 표현될 이산형 변수의 순서 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 라인, 폰트, 눈금, 그리드 등 축에 관련된 전반적 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 플롯에서의 비율로 변환된 축의 범위 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축에서의 눈금 간격 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 범위를 고정, 고정값을 사용하면 줌이 되지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 라인의 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 라인의 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 선의 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 선의 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 간격 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 그리드 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 그리드 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 총 개수 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 그리드 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 시작값 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 눈금 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 눈금 길이 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 눈금 모드 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 표시 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 표시값 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조 눈금의 눈금 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로팅 영역의 반대편에 축선과 축 눈금을 미러링 할지 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축에 표시할 눈금의 최대 개수 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로팅 공간에서의 축의 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축의 범위 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축의 단절 구간의 상한과 하한값 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>values 아이템의 크기 설정(밀리세컨 단위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 단절을 사용할지 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절단 구간의 패턴 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 단절과 관련한 축상의 값 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 모드의 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천단위 구분자 사용 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산형 변수 간의 나눔선 사용 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수형 수치 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 라인의 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 선의 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크 선의 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 접두어 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 접미어 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축의 표시 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크 선의 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스퍼이크 선의 대시 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파이크 선의 모드 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 시작 값 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 표시 각도 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 폰트 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 크기 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨의 d3 포맷 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 레벨에 의해 표시될 눈금 라벨의 범위 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 레벨에 의해 표시될 눈금 라벨 범위를 사용할 것인지 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 레벨에 의해 표시될 눈금 라벨의 d3 포맷 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 모드 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨이 그래프 영역을 넘어갈 때 모드 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨의 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 길이 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 모드 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 접미어 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 라벨 접두어 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickvals'에 매칭되는 눈금 표시 문자열 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축에 표시할 눈금 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 제목 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 제목 폰트 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 제목 크기 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축과 그래프간의 거리 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 제목 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 타입 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축의 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0값이 표시되는 축 선 표시 여부 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0값이 표시되는 축 선 색상 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0값이 표시되는 축 선 두께 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xaxis(yaxis)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list, numpy array, or Pandas series of numbers, strings, or datetimes(dataframe column, list, vector)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치나 좌표상의 변량값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 정수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0부터 1사이의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각도값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>논리값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈금 표시 위치 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이상의 수치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"height"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"width"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"left"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"right"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"top"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"bottom"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> 이나 '+'를 사용한 조합 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논리값</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"toaxis"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"across"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"marker"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 또는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"+"를 사용한 조합</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -858,30 +1706,9 @@
       </rPr>
       <t>"relative"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>barnorm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>막대 트레이스의 표준화 방법 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -940,221 +1767,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>automargin</t>
-  </si>
-  <si>
-    <t>autorange</t>
-  </si>
-  <si>
-    <t>autotypenumbers</t>
-  </si>
-  <si>
-    <t>categoryarray</t>
-  </si>
-  <si>
-    <t>categoryorder</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>dtick</t>
-  </si>
-  <si>
-    <t>fixedrange</t>
-  </si>
-  <si>
-    <t>gridcolor</t>
-  </si>
-  <si>
-    <t>gridwidth</t>
-  </si>
-  <si>
-    <t>linecolor</t>
-  </si>
-  <si>
-    <t>linewidth</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>nticks</t>
-  </si>
-  <si>
-    <t>showgrid</t>
-  </si>
-  <si>
-    <t>tick0</t>
-  </si>
-  <si>
-    <t>tickcolor</t>
-  </si>
-  <si>
-    <t>ticklen</t>
-  </si>
-  <si>
-    <t>tickmode</t>
-  </si>
-  <si>
-    <t>ticks</t>
-  </si>
-  <si>
-    <t>tickvals</t>
-  </si>
-  <si>
-    <t>tickwidth</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>rangebreaks</t>
-  </si>
-  <si>
-    <t>bounds</t>
-  </si>
-  <si>
-    <t>dvalue</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>rangemode</t>
-  </si>
-  <si>
-    <t>separatethousands</t>
-  </si>
-  <si>
-    <t>showdividers</t>
-  </si>
-  <si>
-    <t>showexponent</t>
-  </si>
-  <si>
-    <t>showline</t>
-  </si>
-  <si>
-    <t>showspikes</t>
-  </si>
-  <si>
-    <t>showticklabels</t>
-  </si>
-  <si>
-    <t>showtickprefix</t>
-  </si>
-  <si>
-    <t>showticksuffix</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>spikecolor</t>
-  </si>
-  <si>
-    <t>spikedash</t>
-  </si>
-  <si>
-    <t>spikemode</t>
-  </si>
-  <si>
-    <t>tickangle</t>
-  </si>
-  <si>
-    <t>tickfont</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>tickformat</t>
-  </si>
-  <si>
-    <t>tickformatstops</t>
-  </si>
-  <si>
-    <t>dtickrange</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>ticklabelmode</t>
-  </si>
-  <si>
-    <t>ticklabeloverflow</t>
-  </si>
-  <si>
-    <t>ticklabelposition</t>
-  </si>
-  <si>
-    <t>tickprefix</t>
-  </si>
-  <si>
-    <t>ticksuffix</t>
-  </si>
-  <si>
-    <t>ticktext</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>font</t>
-  </si>
-  <si>
-    <t>standoff</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>zeroline</t>
-  </si>
-  <si>
-    <t>zerolinecolor</t>
-  </si>
-  <si>
-    <t>zerolinewidth</t>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1213,13 +1830,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1258,13 +1873,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1575,21 +2188,9 @@
       </rPr>
       <t>"median descending"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1640,21 +2241,9 @@
       </rPr>
       <t>"array"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1713,13 +2302,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1818,13 +2405,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1883,13 +2468,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -1940,21 +2523,9 @@
       </rPr>
       <t>"nonnegative"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2033,13 +2604,177 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"all"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"first"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"last"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"none"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"all"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"first"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"last"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"none"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2118,13 +2853,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2155,21 +2888,9 @@
       </rPr>
       <t>"period"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2220,21 +2941,9 @@
       </rPr>
       <t>"hide past domain"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2433,13 +3142,64 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t> ( </t>
-    </r>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"outside"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>"inside"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF20293D"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF434F54"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -2550,716 +3310,6 @@
       </rPr>
       <t>"multicategory"</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <t>주 눈금라벨과 플롯간의 자동 간격 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력 데이터에 관련된 축의 범위를 설정 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>strict'는 트레이스의 수치 문자열을 수치로 변환하지 않고 문자열로 사용하고 "convert types"은 수치 문자열을 수치로 변환하여 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이산형 변수의 순서 설정 방법을 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축에 표현될 이산형 변수의 순서 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 라인, 폰트, 눈금, 그리드 등 축에 관련된 전반적 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 플롯에서의 비율로 변환된 축의 범위 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축에서의 눈금 간격 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 범위를 고정, 고정값을 사용하면 줌이 되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리드 라인의 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리드 라인의 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 선의 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 선의 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 간격 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 그리드 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 그리드 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 총 개수 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 그리드 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 시작값 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 눈금 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 눈금 길이 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 눈금 모드 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 표시 위치 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 표시값 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조 눈금의 눈금 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플로팅 영역의 반대편에 축선과 축 눈금을 미러링 할지 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축에 표시할 눈금의 최대 개수 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플로팅 공간에서의 축의 위치 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축의 범위 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축의 단절 구간의 상한과 하한값 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>values 아이템의 크기 설정(밀리세컨 단위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 단절을 사용할지 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>절단 구간의 패턴 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 단절과 관련한 축상의 값 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위 모드의 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천단위 구분자 사용 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이산형 변수 간의 나눔선 사용 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수형 수치 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리드 라인의 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 선의 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파이크 선의 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 접두어 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 접미어 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축의 표시 위치 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파이크 선의 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스퍼이크 선의 대시 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파이크 선의 모드 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 시작 값 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 표시 각도 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 폰트 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 크기 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨의 d3 포맷 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>줌 레벨에 의해 표시될 눈금 라벨의 범위 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>줌 레벨에 의해 표시될 눈금 라벨 범위를 사용할 것인지 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>줌 레벨에 의해 표시될 눈금 라벨의 d3 포맷 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 모드 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨이 그래프 영역을 넘어갈 때 모드 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨의 위치 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 길이 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 모드 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 접미어 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 라벨 접두어 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tickvals'에 매칭되는 눈금 표시 문자열 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축에 표시할 눈금 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 제목 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 제목 폰트 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 제목 크기 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축과 그래프간의 거리 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 제목 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축 타입 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>축의 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0값이 표시되는 축 선 표시 여부 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0값이 표시되는 축 선 색상 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0값이 표시되는 축 선 두께 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xaxis(yaxis)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list, numpy array, or Pandas series of numbers, strings, or datetimes(dataframe column, list, vector)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치나 좌표상의 변량값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 정수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0부터 1사이의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각도값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>논리값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈금 표시 위치 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폰트명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0이상의 수치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"height"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"width"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"left"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"right"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"top"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"bottom"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> 이나 '+'를 사용한 조합 또는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>논리값</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"toaxis"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"across"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"marker"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 또는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"+"를 사용한 조합</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"outside"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>"inside"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF434F54"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF20293D"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t> )</t>
-    </r>
-  </si>
-  <si>
-    <t>색상값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>색상값</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3429,7 +3479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3493,14 +3543,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3526,30 +3582,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3559,8 +3591,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3845,21 +3880,24 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.796875" customWidth="1"/>
     <col min="5" max="5" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3868,13 +3906,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3885,9 +3923,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -3898,9 +3936,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3911,11 +3949,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -3926,9 +3964,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3939,9 +3977,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -3952,9 +3990,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -3965,11 +4003,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
@@ -3978,11 +4016,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
@@ -3991,11 +4029,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4004,11 +4042,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4017,11 +4055,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
@@ -4030,11 +4068,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
@@ -4043,11 +4081,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
@@ -4076,345 +4114,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="23.69921875" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>39</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4422,114 +4167,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="41"/>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="58.59765625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4538,1123 +4198,1123 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="36"/>
-      <c r="B3" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
-      <c r="B4" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="36"/>
-      <c r="B5" s="32" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
-      <c r="B6" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="36"/>
-      <c r="B7" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="D53" s="37"/>
+      <c r="E53" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="37"/>
+      <c r="E75" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="36"/>
-      <c r="B9" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="36"/>
-      <c r="B12" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="36"/>
-      <c r="B13" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="36"/>
-      <c r="B14" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="36"/>
-      <c r="B27" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="36"/>
-      <c r="B28" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="36"/>
-      <c r="B29" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="36"/>
-      <c r="B30" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="36"/>
-      <c r="B31" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="36"/>
-      <c r="B36" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="36"/>
-      <c r="B37" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="36"/>
-      <c r="B38" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="36"/>
-      <c r="B39" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="36"/>
-      <c r="B40" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="36"/>
-      <c r="B41" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="36"/>
-      <c r="B42" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="36"/>
-      <c r="B43" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="36"/>
-      <c r="B44" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="36"/>
-      <c r="B45" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="36"/>
-      <c r="B46" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="36"/>
-      <c r="B47" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="36"/>
-      <c r="B48" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="36"/>
-      <c r="B49" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="36"/>
-      <c r="B50" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="36"/>
-      <c r="B51" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="36"/>
-      <c r="B52" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="36"/>
-      <c r="B53" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="36"/>
-      <c r="B56" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="36"/>
-      <c r="B57" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="16" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="36"/>
-      <c r="B60" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="16" t="s">
+      <c r="F76" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="36"/>
-      <c r="B61" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="16" t="s">
+      <c r="F77" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="36"/>
-      <c r="B62" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="16" t="s">
+      <c r="F78" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="36"/>
-      <c r="B63" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="36"/>
-      <c r="B64" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="36"/>
-      <c r="B65" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="36"/>
-      <c r="B66" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="36"/>
-      <c r="B67" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="36"/>
-      <c r="B68" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="36"/>
-      <c r="B69" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="36"/>
-      <c r="B70" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="36"/>
-      <c r="B71" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="36"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="15" t="s">
+      <c r="F79" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="36"/>
-      <c r="B76" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="36"/>
-      <c r="B77" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="36"/>
-      <c r="B78" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="36"/>
-      <c r="B79" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="37"/>
-      <c r="B80" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="34"/>
+      <c r="B80" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="16" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5750,54 +5410,438 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="35"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="35"/>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="36"/>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5808,13 +5852,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
@@ -5829,25 +5874,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>298</v>
+      <c r="A2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>299</v>
+      <c r="A3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5860,11 +5905,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.8984375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
@@ -5899,7 +5949,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>97</v>
       </c>
@@ -5907,18 +5957,18 @@
         <v>98</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
